--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466112.317218289</v>
+        <v>2459095.302326577</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9646701.581308991</v>
+        <v>9646701.581308989</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.95772706123027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>155.3395533163062</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>69.75041800665538</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.7498680634317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>263.3259680634793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>187.1086023358206</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>104.4482877815461</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>213.935651008049</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>19.76755821211483</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>155.9452381968314</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>65.53293573769254</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.27914576410229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789692</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1537278750123</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>37.63559668982773</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>256.6047146313649</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>222.2179949548722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.72982734094951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>93.11384720807516</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>237.8168288397931</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>50.98540654304551</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.64843562452423</v>
+        <v>115.118279051951</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>135.7789877804221</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.012178247056795</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>235.5564066734317</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>144.0409689064678</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2540.240451304782</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2321.605784276845</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2067.843998914936</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2067.843998914936</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>628.2570973765659</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>407.4645182330357</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.144219645282</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.744059709404</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>474.4790046491578</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>474.4790046491578</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W7" t="n">
-        <v>474.4790046491578</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511404</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>73.91021233765217</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2089.787804211887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2089.787804211887</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1737.019148941773</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265798</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473464</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473464</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687022</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811349</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441742</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>237.7764125461569</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823764</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514063</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1460.900516325753</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1260.980506241305</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247869</v>
+        <v>1037.195091030811</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383451</v>
+        <v>748.0664522443694</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383451</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="W16" t="n">
-        <v>415.8104215925219</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,43 +5500,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609673</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550805</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4186.289902337209</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>4186.289902337209</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>4036.173262924874</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>4637.069157803799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>4637.069157803799</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>4409.079606905781</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>4367.938367167449</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1093.866765916012</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,31 +6457,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4027.624275985003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>4027.624275985003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>4027.624275985003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>4027.624275985003</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985003</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>4027.624275985003</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y31" t="n">
-        <v>4027.624275985003</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="35">
@@ -6928,34 +6928,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.685527502827</v>
+        <v>1382.635180606437</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502827</v>
+        <v>1093.506541819995</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>1093.506541819995</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7420,43 +7420,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1494.863565257845</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054477</v>
+        <v>1294.943555173397</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843984</v>
+        <v>1071.158139962903</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057542</v>
+        <v>782.0295011764614</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851655</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4347.940519017357</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>4093.25603081147</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>3855.320266494872</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X46" t="n">
-        <v>3627.330715596855</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y46" t="n">
-        <v>3627.330715596855</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720713</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298005</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776738</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.4309254770825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>72.32875571396505</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>29.91828370522609</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>64.30500338171879</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.8548260111453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>193.1235051905022</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>48.70616949679791</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>8.463497070472982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>174.7242488459916</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>163.899125433865</v>
+        <v>106.4292820064382</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>105.952174156736</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>50.96659166315933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>74.54368444562704</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585985</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585981</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822996.3863585985</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196783</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196778</v>
@@ -26355,7 +26355,7 @@
         <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687069</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687069</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26453,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128737</v>
+        <v>-243204.5419128735</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.3373016712</v>
+        <v>346763.3373016707</v>
       </c>
       <c r="D6" t="n">
         <v>346763.337301671</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280623</v>
+        <v>-73304.4246525271</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243688</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243689</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840913</v>
+        <v>451855.6118243693</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914976</v>
+        <v>275432.3926317757</v>
       </c>
       <c r="K6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243688</v>
       </c>
       <c r="L6" t="n">
-        <v>452830.2030840911</v>
+        <v>451855.6118243694</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502537</v>
+        <v>317054.596590532</v>
       </c>
       <c r="N6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243688</v>
       </c>
       <c r="O6" t="n">
-        <v>452830.2030840905</v>
+        <v>451855.6118243688</v>
       </c>
       <c r="P6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.6118243687</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.7761146022503</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.07615949266534</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>76.91477397350248</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>101.9469237075283</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.6755676849744</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>181.8335864604317</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>72.58734732854199</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>394.0166118086802</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>95.27892931145786</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>220.9900625988985</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.3055075879925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.918288247310557e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980132</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997188275</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415056</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091987</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459095.302326577</v>
+        <v>2464034.565175609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>204.2614711154542</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>155.3395533163062</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -864,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>69.75041800665538</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>76.1895324087313</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.1086023358206</v>
+        <v>264.1398739161994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.764863467406547</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>213.935651008049</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>19.76755821211483</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>57.44899573820106</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>65.53293573769254</v>
+        <v>75.55676716022019</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.964516789692</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>36.4189118054543</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.63559668982773</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>93.11384720807516</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>237.8168288397931</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>50.98540654304551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>115.118279051951</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>135.7789877804221</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.012178247056795</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.0409689064678</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>260.267700118803</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2540.240451304782</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2321.605784276845</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2067.843998914936</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2067.843998914936</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1715.075343644822</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1715.075343644822</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4512,25 +4512,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>628.2570973765659</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>628.2570973765659</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
         <v>407.4645182330357</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037878</v>
+        <v>1629.256767270584</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1270.991068663833</v>
       </c>
       <c r="E5" t="n">
-        <v>807.393450832883</v>
+        <v>885.2028160655889</v>
       </c>
       <c r="F5" t="n">
-        <v>396.4075460432754</v>
+        <v>474.2169112759813</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005475</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>257.3478788207</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936061</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685564</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685564</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765217</v>
+        <v>529.9360785466231</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>111.97227044481</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>111.97227044481</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>632.5171804765284</v>
+        <v>622.3920982315509</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,7 +5029,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>618.0053231677515</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1460.900516325753</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1260.980506241305</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1037.195091030811</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>748.0664522443694</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>493.3819640384826</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>493.3819640384826</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.9805482336712</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1093.866765916012</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>839.1822777101255</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>839.1822777101255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.8631874464246</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1382.635180606437</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1093.506541819995</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1093.506541819995</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>804.0893717830343</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>804.0893717830343</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7368,16 +7368,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7405,52 +7405,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1494.863565257845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1294.943555173397</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1071.158139962903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>782.0295011764614</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>527.3450129705745</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>820.5263570570736</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>592.5368061590563</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119834</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>112.1965612127581</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.32875571396505</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.51615797628583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>6.267320147927705</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>193.1235051905022</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>48.70616949679791</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>174.7242488459916</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>10.65497486614709</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,13 +25131,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>106.4292820064382</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>10.65497486614709</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25608,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>105.952174156736</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.54368444562704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196782</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128735</v>
+        <v>-243204.5419128734</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.3373016707</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.337301671</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="E6" t="n">
-        <v>-73304.4246525271</v>
+        <v>-72427.29251877742</v>
       </c>
       <c r="F6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="G6" t="n">
-        <v>451855.6118243688</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="H6" t="n">
-        <v>451855.6118243689</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="I6" t="n">
-        <v>451855.6118243693</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="J6" t="n">
-        <v>275432.3926317757</v>
+        <v>276309.5247655252</v>
       </c>
       <c r="K6" t="n">
-        <v>451855.6118243688</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="L6" t="n">
-        <v>451855.6118243694</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="M6" t="n">
-        <v>317054.596590532</v>
+        <v>317931.7287242815</v>
       </c>
       <c r="N6" t="n">
-        <v>451855.6118243688</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="O6" t="n">
-        <v>451855.6118243688</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="P6" t="n">
-        <v>451855.6118243687</v>
+        <v>452732.7439581182</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>209.5226989053408</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.07615949266534</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>76.91477397350248</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>142.3951209433635</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.6755676849744</v>
+        <v>149.6442961045956</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>19.35788648750776</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>72.58734732854199</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.0166118086802</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>94.48232050666019</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>220.9900625988985</v>
+        <v>210.9662311763708</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
